--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1319537.21407572</v>
+        <v>1317202.10287374</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078201</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>145.2988217299244</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>25.95777670103177</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>282.0179652240194</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>323.8408286396447</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>94.63569234846305</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>100.6867690249409</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>153.7312730021086</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>242.6334155076101</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045337</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>67.24416875037157</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.77457939421532</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428297</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>206.7582264966188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.97427419833902</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.99837838564447</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>129.5380597272478</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161895517</v>
       </c>
       <c r="G31" t="n">
-        <v>88.92406475355295</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.9393756113372</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.1185786361432</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>132.6164309267675</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1407.319888150871</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1038.35737121046</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>680.0916726037092</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>680.0916726037092</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2184.059060190805</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2184.059060190805</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1793.919728214993</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326.0381161665167</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1610.226143608808</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1387.247662803544</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1098.129325307382</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>843.4448371014946</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>554.0276670645341</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="X4" t="n">
-        <v>326.0381161665167</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="Y4" t="n">
-        <v>326.0381161665167</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1486.93224570035</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="C5" t="n">
-        <v>1117.969728759938</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>759.7040301531875</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>373.9157775549433</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2466.747719967364</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2466.747719967364</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2213.166659231544</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2213.166659231544</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W5" t="n">
-        <v>1860.39800396143</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X5" t="n">
-        <v>1486.93224570035</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y5" t="n">
-        <v>1486.93224570035</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
         <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>934.7929217761706</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>765.8567388482637</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>615.740099435928</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>467.8270058535348</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>320.9370583556245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>152.950593663903</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1192.043668434791</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>937.3591802289043</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.23396574994</v>
+        <v>647.9420101919436</v>
       </c>
       <c r="X7" t="n">
-        <v>1337.23396574994</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y7" t="n">
-        <v>1116.44138660641</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3080.521563520676</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2749.458676177105</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2396.690020906991</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.224262645911</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.224262645911</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>645.3078929297411</v>
+        <v>431.4421061205826</v>
       </c>
       <c r="C10" t="n">
-        <v>645.3078929297411</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>645.3078929297411</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>497.394799347348</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5048518494376</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>182.8020152241566</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>652.2346852641127</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>431.4421061205826</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
@@ -5036,16 +5036,16 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718124</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603202</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>739.5354516872154</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5479,7 +5479,7 @@
         <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597677</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>762.5477693179085</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1021.293348608258</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C31" t="n">
-        <v>852.3571656803509</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D31" t="n">
-        <v>702.2405262680152</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E31" t="n">
-        <v>554.3274326856221</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="F31" t="n">
-        <v>407.4374851877117</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y31" t="n">
-        <v>1202.941813438498</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="32">
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7023,16 +7023,16 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.590151828076</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4041655335318</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>664.287526121196</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3744325388029</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4844850408925</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8061,25 +8061,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241558</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780642</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409392939</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>45.37941682720918</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409392983</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294901</v>
       </c>
       <c r="G19" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>144.595665406742</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>16.89590291932134</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459444</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067417</v>
       </c>
       <c r="G31" t="n">
-        <v>76.60007353871589</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.8926045706001</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856724</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.71340154579411</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>32.9077073655013</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936757.8051536796</v>
+        <v>936757.8051536795</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536795</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536795</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.06191857</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185701</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185702</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140037</v>
@@ -26329,28 +26329,28 @@
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551193</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,10 +26421,10 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
@@ -26433,10 +26433,10 @@
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,7 +26445,7 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26479,7 +26479,7 @@
         <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851790.7677892966</v>
+        <v>-851790.7677892969</v>
       </c>
       <c r="C6" t="n">
-        <v>262961.015786623</v>
+        <v>262961.0157866228</v>
       </c>
       <c r="D6" t="n">
-        <v>103539.7457887308</v>
+        <v>103539.7457887309</v>
       </c>
       <c r="E6" t="n">
-        <v>48415.76782598422</v>
+        <v>48381.0299005487</v>
       </c>
       <c r="F6" t="n">
-        <v>373828.22963334</v>
+        <v>373793.4917079044</v>
       </c>
       <c r="G6" t="n">
-        <v>373828.2296333404</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="H6" t="n">
-        <v>373828.2296333399</v>
+        <v>373793.4917079044</v>
       </c>
       <c r="I6" t="n">
-        <v>373828.2296333398</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="J6" t="n">
-        <v>206223.0518233573</v>
+        <v>206188.3138979217</v>
       </c>
       <c r="K6" t="n">
-        <v>373828.2296333399</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="L6" t="n">
-        <v>325534.2596251491</v>
+        <v>325499.5216997134</v>
       </c>
       <c r="M6" t="n">
-        <v>288773.2016978281</v>
+        <v>288738.4637723924</v>
       </c>
       <c r="N6" t="n">
-        <v>373828.2296333401</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="O6" t="n">
-        <v>373828.22963334</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="P6" t="n">
-        <v>373828.22963334</v>
+        <v>373793.4917079041</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973561</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973561</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973561</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.3234674802255</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>261.577224011787</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>168.7046836607057</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.505033112571596</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.4320631313629</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>28.81652305033133</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>46.56474013018793</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>40.93118735962889</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>8.361756451291882</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739353</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>100.0026523482563</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>125.9804355201055</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-9.297825982088264e-14</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31789,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4394551593568</v>
+        <v>613.2529048371014</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>302.3396059822662</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862124</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>653.3850396373766</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106269</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019726</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>343.4452429480954</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202787</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>535.6747904601048</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>376.3054212373385</v>
+        <v>471.118870915083</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>163.785226202392</v>
       </c>
       <c r="M15" t="n">
         <v>603.412613764194</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>510.7887951929322</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281522</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629669</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799544</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
